--- a/需求文档/计费单据UI设计V0.1.1.xlsx
+++ b/需求文档/计费单据UI设计V0.1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="6"/>
+    <workbookView windowWidth="26663" windowHeight="15275" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录及说明" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="268">
   <si>
     <t>图例说明</t>
   </si>
@@ -418,6 +418,273 @@
     <t>订单号</t>
   </si>
   <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>业务项目</t>
+  </si>
+  <si>
+    <t>签收日期起</t>
+  </si>
+  <si>
+    <t>签收日期止</t>
+  </si>
+  <si>
+    <t>收支项目</t>
+  </si>
+  <si>
+    <t>备货单号</t>
+  </si>
+  <si>
+    <t>零部件明细partList</t>
+  </si>
+  <si>
+    <t>订单类型</t>
+  </si>
+  <si>
+    <t>客户合同编码</t>
+  </si>
+  <si>
+    <t>收支项目代码</t>
+  </si>
+  <si>
+    <t>正向/反向</t>
+  </si>
+  <si>
+    <t>超时预警(小时)</t>
+  </si>
+  <si>
+    <t>零件数合计</t>
+  </si>
+  <si>
+    <t>体积合计(方)</t>
+  </si>
+  <si>
+    <t>重量合计(KG)</t>
+  </si>
+  <si>
+    <t>是否回单</t>
+  </si>
+  <si>
+    <t>是否保价</t>
+  </si>
+  <si>
+    <t>声明价值</t>
+  </si>
+  <si>
+    <t>保价费率（%）</t>
+  </si>
+  <si>
+    <t>是否装卸</t>
+  </si>
+  <si>
+    <t>是否代收货款</t>
+  </si>
+  <si>
+    <t>代收货款金额</t>
+  </si>
+  <si>
+    <t>预计最晚交付时间</t>
+  </si>
+  <si>
+    <t>订单日期</t>
+  </si>
+  <si>
+    <t>签收日期</t>
+  </si>
+  <si>
+    <t>零件号</t>
+  </si>
+  <si>
+    <t>零件名称</t>
+  </si>
+  <si>
+    <t>箱数</t>
+  </si>
+  <si>
+    <t>重量（KG）</t>
+  </si>
+  <si>
+    <t>体积（m³）</t>
+  </si>
+  <si>
+    <t>销售单价</t>
+  </si>
+  <si>
+    <t>发货金额</t>
+  </si>
+  <si>
+    <t>实绩运单-备件</t>
+  </si>
+  <si>
+    <t>运单状态</t>
+  </si>
+  <si>
+    <t>应收计费状态</t>
+  </si>
+  <si>
+    <t>应付计费状态</t>
+  </si>
+  <si>
+    <t>车型</t>
+  </si>
+  <si>
+    <t>运输路线</t>
+  </si>
+  <si>
+    <t>车牌号</t>
+  </si>
+  <si>
+    <t>定额信息quotalist</t>
+  </si>
+  <si>
+    <t>站点信息sitelist</t>
+  </si>
+  <si>
+    <t>运输线路</t>
+  </si>
+  <si>
+    <t>运单始发地名称</t>
+  </si>
+  <si>
+    <t>运单目的地名称</t>
+  </si>
+  <si>
+    <t>承运商合同编码</t>
+  </si>
+  <si>
+    <t>车型名称</t>
+  </si>
+  <si>
+    <t>结算方式</t>
+  </si>
+  <si>
+    <t>主驾</t>
+  </si>
+  <si>
+    <t>副驾</t>
+  </si>
+  <si>
+    <t>快递单号</t>
+  </si>
+  <si>
+    <t>快递费用</t>
+  </si>
+  <si>
+    <t>总数量</t>
+  </si>
+  <si>
+    <t>总箱数</t>
+  </si>
+  <si>
+    <t>总体积（m³）</t>
+  </si>
+  <si>
+    <t>总重量（KG）</t>
+  </si>
+  <si>
+    <t>积载率（%）</t>
+  </si>
+  <si>
+    <t>积载率不达标原因</t>
+  </si>
+  <si>
+    <t>是否往返</t>
+  </si>
+  <si>
+    <t>是否绕行</t>
+  </si>
+  <si>
+    <t>总路桥费用（元）</t>
+  </si>
+  <si>
+    <t>总绕行路桥（元）</t>
+  </si>
+  <si>
+    <t>总实际里程（KM）</t>
+  </si>
+  <si>
+    <t>总绕行里程（KM）</t>
+  </si>
+  <si>
+    <t>运单完成时间</t>
+  </si>
+  <si>
+    <t>线路名称</t>
+  </si>
+  <si>
+    <t>路桥费用(元)</t>
+  </si>
+  <si>
+    <t>绕行桥路(元)</t>
+  </si>
+  <si>
+    <t>实际里程(KM)</t>
+  </si>
+  <si>
+    <t>绕行里程(KM)</t>
+  </si>
+  <si>
+    <t>网点名称</t>
+  </si>
+  <si>
+    <t>正/反向</t>
+  </si>
+  <si>
+    <t>站点用途</t>
+  </si>
+  <si>
+    <t>计划入场时间</t>
+  </si>
+  <si>
+    <t>计划离场时间</t>
+  </si>
+  <si>
+    <t>实际入场时间</t>
+  </si>
+  <si>
+    <t>实际离场时间</t>
+  </si>
+  <si>
+    <t>路由订单-备件</t>
+  </si>
+  <si>
+    <t>路线名称</t>
+  </si>
+  <si>
+    <t>路由订单始发地</t>
+  </si>
+  <si>
+    <t>路由订单目的地</t>
+  </si>
+  <si>
+    <t>订单始发地</t>
+  </si>
+  <si>
+    <t>订单目的地</t>
+  </si>
+  <si>
+    <t>路由订单状态</t>
+  </si>
+  <si>
+    <t>主机厂网点代码</t>
+  </si>
+  <si>
+    <t>路由始发地</t>
+  </si>
+  <si>
+    <t>路由目的地</t>
+  </si>
+  <si>
+    <t>箱号</t>
+  </si>
+  <si>
+    <t>发货地名称</t>
+  </si>
+  <si>
+    <t>收货地名称</t>
+  </si>
+  <si>
     <t>交付状态</t>
   </si>
   <si>
@@ -427,250 +694,136 @@
     <t>交付日期止</t>
   </si>
   <si>
-    <t>备货单号</t>
-  </si>
-  <si>
-    <t>订单类型</t>
-  </si>
-  <si>
-    <t>预计最晚交付时间</t>
-  </si>
-  <si>
-    <t>总订货数量</t>
-  </si>
-  <si>
-    <t>总重量(Kg)</t>
-  </si>
-  <si>
-    <t>总体积(方)</t>
-  </si>
-  <si>
-    <t>退库数量</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>域名</t>
-  </si>
-  <si>
-    <t>实绩运单-备件</t>
-  </si>
-  <si>
-    <t>结算方式</t>
-  </si>
-  <si>
-    <t>应收计费状态</t>
-  </si>
-  <si>
-    <t>应付计费状态</t>
-  </si>
-  <si>
-    <t>车型</t>
-  </si>
-  <si>
-    <t>运输路线</t>
-  </si>
-  <si>
-    <t>车牌号</t>
-  </si>
-  <si>
-    <t>积载率是否达标</t>
-  </si>
-  <si>
-    <t>积载率</t>
-  </si>
-  <si>
-    <t>计划发车时间</t>
-  </si>
-  <si>
-    <t>实际发车时间</t>
-  </si>
-  <si>
-    <t>是否绕行</t>
-  </si>
-  <si>
-    <t>是否往返</t>
-  </si>
-  <si>
-    <t>总数量</t>
-  </si>
-  <si>
-    <t>总毛重(Kg)</t>
-  </si>
-  <si>
-    <t>总里程(Km)</t>
-  </si>
-  <si>
-    <t>总路桥(Km)</t>
-  </si>
-  <si>
-    <t>快递单号</t>
-  </si>
-  <si>
-    <t>快递费用(元)</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>使用单位</t>
-  </si>
-  <si>
-    <t>应付计费异常信息</t>
-  </si>
-  <si>
-    <t>路由订单-备件</t>
-  </si>
-  <si>
-    <t>路线名称</t>
-  </si>
-  <si>
-    <t>路由订单始发地</t>
-  </si>
-  <si>
-    <t>路由订单目的地</t>
-  </si>
-  <si>
-    <t>运输订单始发地</t>
-  </si>
-  <si>
-    <t>运输订单目的地</t>
+    <t>保底价</t>
+  </si>
+  <si>
+    <t>总重量</t>
+  </si>
+  <si>
+    <t>去程重量</t>
+  </si>
+  <si>
+    <t>去程单价</t>
+  </si>
+  <si>
+    <t>去程体积</t>
+  </si>
+  <si>
+    <t>零件销售额</t>
+  </si>
+  <si>
+    <t>按件单价</t>
+  </si>
+  <si>
+    <t>按方单价</t>
+  </si>
+  <si>
+    <t>零件体积</t>
+  </si>
+  <si>
+    <t>按重单价</t>
+  </si>
+  <si>
+    <t>提货费</t>
+  </si>
+  <si>
+    <t>当期油价</t>
+  </si>
+  <si>
+    <t>基准油价</t>
+  </si>
+  <si>
+    <t>浮动值</t>
+  </si>
+  <si>
+    <t>油补率</t>
+  </si>
+  <si>
+    <t>运费金额</t>
+  </si>
+  <si>
+    <t>费率</t>
+  </si>
+  <si>
+    <t>首重单价</t>
+  </si>
+  <si>
+    <t>续重单价</t>
+  </si>
+  <si>
+    <t>容器体积</t>
+  </si>
+  <si>
+    <t>去程价格</t>
+  </si>
+  <si>
+    <t>按趟单价</t>
+  </si>
+  <si>
+    <t>返程重量</t>
+  </si>
+  <si>
+    <t>返程价格</t>
+  </si>
+  <si>
+    <t>出库订单行数</t>
+  </si>
+  <si>
+    <t>按行单价</t>
+  </si>
+  <si>
+    <t>销售额</t>
+  </si>
+  <si>
+    <t>物流辅助费</t>
+  </si>
+  <si>
+    <t>实际出勤天数</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>磨损费基准</t>
+  </si>
+  <si>
+    <t>磨损费天数</t>
+  </si>
+  <si>
+    <t>超龄扣款基准</t>
+  </si>
+  <si>
+    <t>自然月天数</t>
+  </si>
+  <si>
+    <t>超龄扣款天数</t>
+  </si>
+  <si>
+    <t>缺勤扣款基准</t>
+  </si>
+  <si>
+    <t>缺勤天数</t>
+  </si>
+  <si>
+    <t>当期司机数量</t>
+  </si>
+  <si>
+    <t>额外司机数量</t>
+  </si>
+  <si>
+    <t>应出勤天数</t>
+  </si>
+  <si>
+    <t>停运天数</t>
+  </si>
+  <si>
+    <t>多司机费基准</t>
+  </si>
+  <si>
+    <t>订单编号</t>
   </si>
   <si>
     <t>出入库状态</t>
-  </si>
-  <si>
-    <t>保底价</t>
-  </si>
-  <si>
-    <t>总重量</t>
-  </si>
-  <si>
-    <t>去程重量</t>
-  </si>
-  <si>
-    <t>去程单价</t>
-  </si>
-  <si>
-    <t>去程体积</t>
-  </si>
-  <si>
-    <t>零件销售额</t>
-  </si>
-  <si>
-    <t>按件单价</t>
-  </si>
-  <si>
-    <t>按方单价</t>
-  </si>
-  <si>
-    <t>零件体积</t>
-  </si>
-  <si>
-    <t>按重单价</t>
-  </si>
-  <si>
-    <t>提货费</t>
-  </si>
-  <si>
-    <t>当期油价</t>
-  </si>
-  <si>
-    <t>基准油价</t>
-  </si>
-  <si>
-    <t>浮动值</t>
-  </si>
-  <si>
-    <t>油补率</t>
-  </si>
-  <si>
-    <t>运费金额</t>
-  </si>
-  <si>
-    <t>费率</t>
-  </si>
-  <si>
-    <t>首重单价</t>
-  </si>
-  <si>
-    <t>续重单价</t>
-  </si>
-  <si>
-    <t>容器体积</t>
-  </si>
-  <si>
-    <t>去程价格</t>
-  </si>
-  <si>
-    <t>按趟单价</t>
-  </si>
-  <si>
-    <t>返程重量</t>
-  </si>
-  <si>
-    <t>返程价格</t>
-  </si>
-  <si>
-    <t>出库订单行数</t>
-  </si>
-  <si>
-    <t>按行单价</t>
-  </si>
-  <si>
-    <t>销售额</t>
-  </si>
-  <si>
-    <t>物流辅助费</t>
-  </si>
-  <si>
-    <t>实际出勤天数</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>磨损费基准</t>
-  </si>
-  <si>
-    <t>磨损费天数</t>
-  </si>
-  <si>
-    <t>超龄扣款基准</t>
-  </si>
-  <si>
-    <t>自然月天数</t>
-  </si>
-  <si>
-    <t>超龄扣款天数</t>
-  </si>
-  <si>
-    <t>缺勤扣款基准</t>
-  </si>
-  <si>
-    <t>缺勤天数</t>
-  </si>
-  <si>
-    <t>当期司机数量</t>
-  </si>
-  <si>
-    <t>额外司机数量</t>
-  </si>
-  <si>
-    <t>应出勤天数</t>
-  </si>
-  <si>
-    <t>停运天数</t>
-  </si>
-  <si>
-    <t>多司机费基准</t>
   </si>
 </sst>
 </file>
@@ -683,7 +836,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -694,6 +847,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF2B425B"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1125,7 +1284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1224,15 +1383,11 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1259,6 +1414,28 @@
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1420,51 +1597,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1474,98 +1648,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1608,133 +1785,142 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2066,144 +2252,144 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333333333333" defaultRowHeight="15.6" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="2" style="32" customWidth="1"/>
-    <col min="2" max="2" width="8.16666666666667" style="32" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="32"/>
-    <col min="4" max="4" width="14.3333333333333" style="32"/>
-    <col min="5" max="5" width="8.33333333333333" style="32"/>
-    <col min="6" max="6" width="10.3333333333333" style="32"/>
-    <col min="7" max="7" width="10.1666666666667" style="32" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="32" customWidth="1"/>
-    <col min="9" max="40" width="8.33333333333333" style="32"/>
+    <col min="1" max="1" width="2" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.16666666666667" style="35" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="35"/>
+    <col min="4" max="4" width="14.3333333333333" style="35"/>
+    <col min="5" max="5" width="8.33333333333333" style="35"/>
+    <col min="6" max="6" width="10.3333333333333" style="35"/>
+    <col min="7" max="7" width="10.1666666666667" style="35" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="35" customWidth="1"/>
+    <col min="9" max="40" width="8.33333333333333" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B2" s="33" t="s">
+    <row r="2" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+    <row r="4" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
+    <row r="5" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40" t="s">
+    <row r="6" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="42" t="s">
+    <row r="7" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B7" s="42"/>
+      <c r="C7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="41" t="s">
+    <row r="8" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B8" s="42"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="41" t="s">
+    <row r="9" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="45" t="s">
+    <row r="10" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B10" s="42"/>
+      <c r="C10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="46" t="s">
+    <row r="11" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B11" s="42"/>
+      <c r="C11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="41" t="s">
+    <row r="12" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B12" s="42"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="41" t="s">
+    <row r="13" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B13" s="42"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="49" t="s">
+    <row r="14" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B14" s="42"/>
+      <c r="C14" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="51" t="s">
+    <row r="15" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B15" s="42"/>
+      <c r="C15" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="50"/>
-    </row>
-    <row r="16" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="52" t="s">
+      <c r="D15" s="53"/>
+    </row>
+    <row r="16" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B16" s="42"/>
+      <c r="C16" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" s="32" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
+    <row r="17" s="35" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2233,23 +2419,23 @@
   </cols>
   <sheetData>
     <row r="3" ht="14" customHeight="1" spans="2:6">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -2262,7 +2448,7 @@
       <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
@@ -2273,7 +2459,7 @@
       <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
@@ -2284,7 +2470,7 @@
       <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="32" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -2297,7 +2483,7 @@
       <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="13" t="s">
         <v>31</v>
       </c>
@@ -2392,14 +2578,14 @@
         <v>33</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="8" t="s">
         <v>35</v>
       </c>
@@ -2410,10 +2596,10 @@
         <v>36</v>
       </c>
       <c r="O3" s="8"/>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="27"/>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="2:17">
       <c r="B4" s="8" t="s">
@@ -2452,8 +2638,8 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -2716,14 +2902,14 @@
         <v>33</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="26"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
       <c r="J21" s="8" t="s">
         <v>35</v>
       </c>
@@ -2734,10 +2920,10 @@
         <v>36</v>
       </c>
       <c r="O21" s="8"/>
-      <c r="P21" s="27" t="s">
+      <c r="P21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q21" s="27"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" customHeight="1" spans="2:17">
       <c r="B22" s="8" t="s">
@@ -2774,18 +2960,18 @@
         <v>61</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="27"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="8" t="s">
         <v>63</v>
       </c>
@@ -2796,10 +2982,10 @@
         <v>64</v>
       </c>
       <c r="O23" s="8"/>
-      <c r="P23" s="27" t="s">
+      <c r="P23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q23" s="27"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" customHeight="1" spans="2:17">
       <c r="B24" s="11"/>
@@ -3114,14 +3300,14 @@
         <v>83</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="26"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="6"/>
       <c r="F38" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G38" s="8"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="8" t="s">
         <v>35</v>
       </c>
@@ -3132,8 +3318,8 @@
         <v>85</v>
       </c>
       <c r="O38" s="8"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
     </row>
     <row r="39" customHeight="1" spans="2:17">
       <c r="B39" s="8" t="s">
@@ -3170,18 +3356,18 @@
         <v>61</v>
       </c>
       <c r="C40" s="8"/>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="27"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="27"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="8" t="s">
         <v>88</v>
       </c>
@@ -3192,8 +3378,8 @@
         <v>89</v>
       </c>
       <c r="O40" s="8"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
     </row>
     <row r="41" customHeight="1" spans="2:17">
       <c r="B41" s="11"/>
@@ -3496,14 +3682,14 @@
         <v>33</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="8" t="s">
         <v>35</v>
       </c>
@@ -3514,10 +3700,10 @@
         <v>36</v>
       </c>
       <c r="O3" s="8"/>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="27"/>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="2:17">
       <c r="B4" s="8" t="s">
@@ -3556,8 +3742,8 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -3832,14 +4018,14 @@
         <v>83</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="26"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
       <c r="J21" s="8" t="s">
         <v>35</v>
       </c>
@@ -3850,8 +4036,8 @@
         <v>85</v>
       </c>
       <c r="O21" s="8"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="2:17">
       <c r="B22" s="8" t="s">
@@ -3888,18 +4074,18 @@
         <v>61</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="27"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="8" t="s">
         <v>88</v>
       </c>
@@ -3910,8 +4096,8 @@
         <v>89</v>
       </c>
       <c r="O23" s="8"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="2:17">
       <c r="B24" s="11"/>
@@ -4192,7 +4378,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="6"/>
       <c r="F4" s="8" t="s">
         <v>97</v>
@@ -4214,10 +4400,10 @@
         <v>98</v>
       </c>
       <c r="O4" s="8"/>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="27"/>
+      <c r="Q4" s="30"/>
     </row>
     <row r="5" customHeight="1" spans="2:17">
       <c r="B5" s="4" t="s">
@@ -4596,7 +4782,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="26"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
         <v>96</v>
@@ -4614,10 +4800,10 @@
         <v>98</v>
       </c>
       <c r="O21" s="8"/>
-      <c r="P21" s="27" t="s">
+      <c r="P21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q21" s="27"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" customHeight="1" spans="2:17">
       <c r="B22" s="4" t="s">
@@ -4632,10 +4818,10 @@
         <v>36</v>
       </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="8" t="s">
         <v>39</v>
       </c>
@@ -4996,7 +5182,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="26"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="6"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -5012,10 +5198,10 @@
         <v>98</v>
       </c>
       <c r="O38" s="8"/>
-      <c r="P38" s="27" t="s">
+      <c r="P38" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="27"/>
+      <c r="Q38" s="30"/>
     </row>
     <row r="39" customHeight="1" spans="2:17">
       <c r="B39" s="4" t="s">
@@ -5030,10 +5216,10 @@
         <v>36</v>
       </c>
       <c r="G39" s="8"/>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="27"/>
+      <c r="I39" s="30"/>
       <c r="J39" s="8" t="s">
         <v>39</v>
       </c>
@@ -5465,10 +5651,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:AI56"/>
+  <dimension ref="B2:AT56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:K30"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" customHeight="1"/>
@@ -5537,12 +5723,10 @@
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="O4" s="8"/>
-      <c r="P4" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="2:17">
@@ -5573,19 +5757,19 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:17">
       <c r="B6" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -5601,11 +5785,11 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="2:17">
       <c r="B7" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5619,7 +5803,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="21"/>
     </row>
-    <row r="8" ht="15.6" customHeight="1" spans="2:17">
+    <row r="8" ht="15.6" customHeight="1" spans="2:38">
       <c r="B8" s="11"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5640,8 +5824,13 @@
         <v>42</v>
       </c>
       <c r="Q8" s="21"/>
-    </row>
-    <row r="9" customHeight="1" spans="2:17">
+      <c r="AJ8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:38">
       <c r="B9" s="11"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5658,58 +5847,61 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="21"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="2:23">
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="2:46">
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="R10" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="S10" s="12" t="s">
         <v>142</v>
@@ -5721,13 +5913,79 @@
         <v>144</v>
       </c>
       <c r="V10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="W10" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="W10" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:30">
+      <c r="X10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ10" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:46">
       <c r="B11" s="6">
         <v>1</v>
       </c>
@@ -5752,15 +6010,30 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-    </row>
-    <row r="12" customHeight="1" spans="2:30">
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:46">
       <c r="B12" s="6">
         <v>2</v>
       </c>
@@ -5785,15 +6058,30 @@
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:30">
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:46">
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -5818,15 +6106,30 @@
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:30">
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:46">
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -5851,15 +6154,30 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-    </row>
-    <row r="15" customHeight="1" spans="2:30">
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:46">
       <c r="B15" s="6">
         <v>5</v>
       </c>
@@ -5884,17 +6202,32 @@
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
     </row>
     <row r="22" customHeight="1" spans="2:19">
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5942,7 +6275,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
@@ -5950,7 +6283,7 @@
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
@@ -5958,7 +6291,7 @@
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8" t="s">
@@ -5994,7 +6327,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="2:17">
       <c r="B26" s="8" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -6014,7 +6347,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -6022,19 +6355,15 @@
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:17">
       <c r="B27" s="8" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -6044,7 +6373,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="21"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1" spans="2:17">
+    <row r="28" ht="14.25" customHeight="1" spans="2:42">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6065,8 +6394,18 @@
         <v>42</v>
       </c>
       <c r="Q28" s="21"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:17">
+      <c r="AG28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AN28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:42">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -6083,112 +6422,147 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="21"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" spans="2:35">
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="3"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="3"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="2:46">
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="E30" s="12" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="X30" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y30" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z30" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA30" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB30" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC30" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD30" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE30" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF30" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG30" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH30" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI30" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" spans="2:35">
+        <v>187</v>
+      </c>
+      <c r="X30" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y30" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z30" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA30" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB30" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC30" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD30" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE30" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF30"/>
+      <c r="AG30" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH30" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI30" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ30" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK30" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL30" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM30"/>
+      <c r="AN30" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO30" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP30" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ30" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR30" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS30" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT30" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="2:46">
       <c r="B31" s="6">
         <v>1</v>
       </c>
@@ -6221,12 +6595,23 @@
       <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="23"/>
-      <c r="AF31" s="23"/>
-      <c r="AG31" s="23"/>
-      <c r="AH31" s="23"/>
-      <c r="AI31" s="23"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1" spans="2:35">
+      <c r="AF31"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="13"/>
+      <c r="AT31" s="13"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="2:46">
       <c r="B32" s="6">
         <v>2</v>
       </c>
@@ -6259,12 +6644,23 @@
       <c r="AC32" s="23"/>
       <c r="AD32" s="23"/>
       <c r="AE32" s="23"/>
-      <c r="AF32" s="23"/>
-      <c r="AG32" s="23"/>
-      <c r="AH32" s="23"/>
-      <c r="AI32" s="23"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" spans="2:35">
+      <c r="AF32"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="2:46">
       <c r="B33" s="6">
         <v>3</v>
       </c>
@@ -6297,12 +6693,23 @@
       <c r="AC33" s="23"/>
       <c r="AD33" s="23"/>
       <c r="AE33" s="23"/>
-      <c r="AF33" s="23"/>
-      <c r="AG33" s="23"/>
-      <c r="AH33" s="23"/>
-      <c r="AI33" s="23"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" spans="2:35">
+      <c r="AF33"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="13"/>
+      <c r="AT33" s="13"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="2:46">
       <c r="B34" s="6">
         <v>4</v>
       </c>
@@ -6335,12 +6742,23 @@
       <c r="AC34" s="23"/>
       <c r="AD34" s="23"/>
       <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" spans="2:35">
+      <c r="AF34"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="13"/>
+      <c r="AT34" s="13"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="2:46">
       <c r="B35" s="6">
         <v>5</v>
       </c>
@@ -6373,14 +6791,25 @@
       <c r="AC35" s="23"/>
       <c r="AD35" s="23"/>
       <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
+      <c r="AF35"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
     </row>
     <row r="43" customHeight="1" spans="2:19">
       <c r="B43" s="1" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6422,25 +6851,27 @@
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="2:17">
       <c r="B45" s="4" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="8" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="K45" s="8"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="L45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="8"/>
       <c r="N45" s="8" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="6"/>
@@ -6448,13 +6879,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="2:17">
       <c r="B46" s="4" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="8" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="6"/>
@@ -6473,14 +6904,14 @@
       <c r="Q46" s="8"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="2:17">
-      <c r="B47" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="15"/>
+      <c r="B47" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="26"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -6493,14 +6924,10 @@
         <v>15</v>
       </c>
       <c r="M47" s="8"/>
-      <c r="N47" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q47" s="8"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47" s="28"/>
     </row>
     <row r="48" customHeight="1" spans="2:17">
       <c r="B48" s="16"/>
@@ -6520,7 +6947,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="21"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1" spans="2:17">
+    <row r="49" ht="14.25" customHeight="1" spans="2:32">
       <c r="B49" s="11"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -6541,8 +6968,13 @@
         <v>42</v>
       </c>
       <c r="Q49" s="21"/>
-    </row>
-    <row r="50" customHeight="1" spans="2:17">
+      <c r="AD49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:32">
       <c r="B50" s="11"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -6559,67 +6991,130 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="21"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1" spans="2:20">
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="3"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" spans="2:41">
       <c r="B51" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G51" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q51" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="U51" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="V51" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="W51" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X51" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y51" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z51" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB51" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD51" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE51" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF51" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG51" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH51" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI51" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK51" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL51" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM51" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I51" s="12" t="s">
+      <c r="AN51" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="P51" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q51" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="R51" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="S51" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="T51" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" spans="2:20">
+      <c r="AO51" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" spans="2:41">
       <c r="B52" s="6">
         <v>1</v>
       </c>
@@ -6641,8 +7136,28 @@
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" spans="2:20">
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="13"/>
+      <c r="AL52" s="13"/>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="13"/>
+      <c r="AO52" s="13"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="2:41">
       <c r="B53" s="6">
         <v>2</v>
       </c>
@@ -6664,8 +7179,28 @@
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" spans="2:20">
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13"/>
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="13"/>
+      <c r="AL53" s="13"/>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="13"/>
+      <c r="AO53" s="13"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" spans="2:41">
       <c r="B54" s="6">
         <v>3</v>
       </c>
@@ -6687,8 +7222,28 @@
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1" spans="2:20">
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="13"/>
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="13"/>
+      <c r="AO54" s="13"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" spans="2:41">
       <c r="B55" s="6">
         <v>4</v>
       </c>
@@ -6710,8 +7265,28 @@
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1" spans="2:20">
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="13"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="13"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="13"/>
+      <c r="AI55" s="13"/>
+      <c r="AJ55" s="13"/>
+      <c r="AK55" s="13"/>
+      <c r="AL55" s="13"/>
+      <c r="AM55" s="13"/>
+      <c r="AN55" s="13"/>
+      <c r="AO55" s="13"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" spans="2:41">
       <c r="B56" s="6">
         <v>5</v>
       </c>
@@ -6733,6 +7308,26 @@
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13"/>
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="13"/>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="13"/>
+      <c r="AI56" s="13"/>
+      <c r="AJ56" s="13"/>
+      <c r="AK56" s="13"/>
+      <c r="AL56" s="13"/>
+      <c r="AM56" s="13"/>
+      <c r="AN56" s="13"/>
+      <c r="AO56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -6790,8 +7385,6 @@
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:G45"/>
@@ -6814,8 +7407,6 @@
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="F48:G48"/>
@@ -6823,6 +7414,10 @@
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="B43:D44"/>
+    <mergeCell ref="AJ8:AL9"/>
+    <mergeCell ref="AG28:AI29"/>
+    <mergeCell ref="AN28:AP29"/>
+    <mergeCell ref="AD49:AF50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6834,10 +7429,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:AN56"/>
+  <dimension ref="B2:AP56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" customHeight="1"/>
@@ -6898,7 +7493,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="8" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
@@ -6942,13 +7537,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:17">
       <c r="B6" s="8" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -6970,7 +7565,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="2:17">
       <c r="B7" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -7033,19 +7628,19 @@
         <v>22</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="G10" s="12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>36</v>
@@ -7063,67 +7658,67 @@
         <v>94</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>119</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="AE10" s="12" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="AF10" s="12" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="AG10" s="12" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:33">
@@ -7308,7 +7903,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:19">
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -7355,8 +7950,8 @@
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
-        <v>147</v>
+      <c r="F24" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
@@ -7364,7 +7959,7 @@
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
@@ -7372,7 +7967,7 @@
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8" t="s">
@@ -7394,21 +7989,25 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="8" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+      <c r="P25" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Q25" s="8"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="2:17">
       <c r="B26" s="8" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -7428,27 +8027,21 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:17">
-      <c r="B27" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="8"/>
+      <c r="B27" s="14"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -7459,14 +8052,14 @@
       <c r="Q27" s="21"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="2:17">
-      <c r="B28" s="11"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="B28" s="14"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -7480,25 +8073,15 @@
       </c>
       <c r="Q28" s="21"/>
     </row>
-    <row r="29" customHeight="1" spans="2:17">
+    <row r="29" customHeight="1" spans="2:7">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="21"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" spans="2:40">
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="2:42">
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
@@ -7506,118 +8089,124 @@
         <v>83</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G30" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I30" s="12" t="s">
+      <c r="J30" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="L30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="M30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>194</v>
-      </c>
       <c r="N30" s="12" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="X30" s="12" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="AA30" s="12" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="AC30" s="12" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="AD30" s="12" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="AE30" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF30" s="24" t="s">
-        <v>208</v>
+        <v>254</v>
+      </c>
+      <c r="AF30" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="AG30" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH30" s="12" t="s">
-        <v>210</v>
+        <v>256</v>
+      </c>
+      <c r="AH30" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="AI30" s="12" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="AJ30" s="12" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="AK30" s="12" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="AL30" s="12" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="AM30" s="12" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="AN30" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" spans="2:40">
+        <v>263</v>
+      </c>
+      <c r="AO30" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP30" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="2:42">
       <c r="B31" s="6">
         <v>1</v>
       </c>
@@ -7659,8 +8248,10 @@
       <c r="AL31" s="23"/>
       <c r="AM31" s="23"/>
       <c r="AN31" s="23"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1" spans="2:40">
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="23"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="2:42">
       <c r="B32" s="6">
         <v>2</v>
       </c>
@@ -7702,8 +8293,10 @@
       <c r="AL32" s="23"/>
       <c r="AM32" s="23"/>
       <c r="AN32" s="23"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" spans="2:40">
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="23"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="2:42">
       <c r="B33" s="6">
         <v>3</v>
       </c>
@@ -7745,8 +8338,10 @@
       <c r="AL33" s="23"/>
       <c r="AM33" s="23"/>
       <c r="AN33" s="23"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" spans="2:40">
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="2:42">
       <c r="B34" s="6">
         <v>4</v>
       </c>
@@ -7788,8 +8383,10 @@
       <c r="AL34" s="23"/>
       <c r="AM34" s="23"/>
       <c r="AN34" s="23"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" spans="2:40">
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="2:42">
       <c r="B35" s="6">
         <v>5</v>
       </c>
@@ -7831,10 +8428,12 @@
       <c r="AL35" s="23"/>
       <c r="AM35" s="23"/>
       <c r="AN35" s="23"/>
+      <c r="AO35" s="23"/>
+      <c r="AP35" s="23"/>
     </row>
     <row r="43" customHeight="1" spans="2:19">
       <c r="B43" s="1" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -7876,85 +8475,83 @@
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="2:17">
       <c r="B45" s="4" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="7" t="s">
-        <v>127</v>
+      <c r="F45" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="8" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="8" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="2:17">
-      <c r="B46" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="4"/>
+      <c r="B46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="8"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="8" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="G46" s="8"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="H46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="L46" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="M46" s="8"/>
       <c r="N46" s="8" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
+      <c r="P46" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Q46" s="8"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="2:17">
-      <c r="B47" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q47" s="8"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="24"/>
     </row>
     <row r="48" customHeight="1" spans="2:17">
       <c r="B48" s="16"/>
@@ -8014,38 +8611,126 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" spans="2:20">
+    <row r="51" ht="15.75" customHeight="1" spans="2:40">
       <c r="B51" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" spans="2:20">
+        <v>100</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q51" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="U51" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="V51" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="W51" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="X51" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y51" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z51" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB51" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC51" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD51" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE51" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF51" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG51" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH51" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI51" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ51" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK51" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL51" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM51" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN51" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" spans="2:40">
       <c r="B52" s="6">
         <v>1</v>
       </c>
@@ -8058,17 +8743,37 @@
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
+      <c r="L52" s="19"/>
       <c r="M52" s="13"/>
-      <c r="N52" s="19"/>
+      <c r="N52" s="13"/>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" spans="2:20">
+      <c r="U52" s="22"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="23"/>
+      <c r="AE52" s="23"/>
+      <c r="AF52" s="23"/>
+      <c r="AG52" s="23"/>
+      <c r="AH52" s="23"/>
+      <c r="AI52" s="23"/>
+      <c r="AJ52" s="23"/>
+      <c r="AK52" s="23"/>
+      <c r="AL52" s="23"/>
+      <c r="AM52" s="23"/>
+      <c r="AN52" s="23"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="2:40">
       <c r="B53" s="6">
         <v>2</v>
       </c>
@@ -8081,17 +8786,37 @@
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
+      <c r="L53" s="19"/>
       <c r="M53" s="13"/>
-      <c r="N53" s="19"/>
+      <c r="N53" s="13"/>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" spans="2:20">
+      <c r="U53" s="22"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="23"/>
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="23"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="23"/>
+      <c r="AJ53" s="23"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="23"/>
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="23"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" spans="2:40">
       <c r="B54" s="6">
         <v>3</v>
       </c>
@@ -8104,17 +8829,37 @@
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
+      <c r="L54" s="19"/>
       <c r="M54" s="13"/>
-      <c r="N54" s="19"/>
+      <c r="N54" s="13"/>
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1" spans="2:20">
+      <c r="U54" s="22"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="23"/>
+      <c r="AE54" s="23"/>
+      <c r="AF54" s="23"/>
+      <c r="AG54" s="23"/>
+      <c r="AH54" s="23"/>
+      <c r="AI54" s="23"/>
+      <c r="AJ54" s="23"/>
+      <c r="AK54" s="23"/>
+      <c r="AL54" s="23"/>
+      <c r="AM54" s="23"/>
+      <c r="AN54" s="23"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" spans="2:40">
       <c r="B55" s="6">
         <v>4</v>
       </c>
@@ -8127,17 +8872,37 @@
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
+      <c r="L55" s="19"/>
       <c r="M55" s="13"/>
-      <c r="N55" s="19"/>
+      <c r="N55" s="13"/>
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1" spans="2:20">
+      <c r="U55" s="22"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="23"/>
+      <c r="AE55" s="23"/>
+      <c r="AF55" s="23"/>
+      <c r="AG55" s="23"/>
+      <c r="AH55" s="23"/>
+      <c r="AI55" s="23"/>
+      <c r="AJ55" s="23"/>
+      <c r="AK55" s="23"/>
+      <c r="AL55" s="23"/>
+      <c r="AM55" s="23"/>
+      <c r="AN55" s="23"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" spans="2:40">
       <c r="B56" s="6">
         <v>5</v>
       </c>
@@ -8150,18 +8915,38 @@
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
+      <c r="L56" s="19"/>
       <c r="M56" s="13"/>
-      <c r="N56" s="19"/>
+      <c r="N56" s="20"/>
       <c r="O56" s="13"/>
-      <c r="P56" s="20"/>
+      <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="23"/>
+      <c r="AE56" s="23"/>
+      <c r="AF56" s="23"/>
+      <c r="AG56" s="23"/>
+      <c r="AH56" s="23"/>
+      <c r="AI56" s="23"/>
+      <c r="AJ56" s="23"/>
+      <c r="AK56" s="23"/>
+      <c r="AL56" s="23"/>
+      <c r="AM56" s="23"/>
+      <c r="AN56" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="77">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -8214,10 +8999,6 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:G45"/>
@@ -8236,12 +9017,6 @@
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="F48:G48"/>
